--- a/trend_results/Rivers/OrouaatAlmadaleSlackline_4c8ea80f1e.xlsx
+++ b/trend_results/Rivers/OrouaatAlmadaleSlackline_4c8ea80f1e.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0916606131112542</v>
+        <v>0.908339386888746</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.633927714126634</v>
+        <v>0.366072285873366</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0002158582583503</v>
+        <v>0.99978414174165</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.484962726113464</v>
+        <v>0.515037273886536</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3086,14 +3086,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.59675202974633</v>
+        <v>0.0051790568406435</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.41</v>
+        <v>1.325</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0055499494463428</v>
+        <v>0.0499794745484401</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0430041839738948</v>
+        <v>0.0126304869960088</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0235391649347861</v>
+        <v>0.136139848062212</v>
       </c>
       <c r="N30" t="n">
-        <v>1.35364620642508</v>
+        <v>3.77203581497661</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3163,7 +3163,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3173,14 +3177,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3188,31 +3192,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.889664319040077</v>
+        <v>0.227202602361298</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0548780487804878</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.530487804878049</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>110.48</v>
+        <v>2.2</v>
       </c>
       <c r="K31" t="n">
-        <v>3.20055203512263</v>
+        <v>-0.0068112452776828</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.82031350833415</v>
+        <v>-0.0456748796195712</v>
       </c>
       <c r="M31" t="n">
-        <v>5.30901840768906</v>
+        <v>0.0149791562380947</v>
       </c>
       <c r="N31" t="n">
-        <v>2.89695151622251</v>
+        <v>-0.309602058076495</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3221,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3250,7 +3254,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3260,14 +3268,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3275,31 +3283,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.59675202974633</v>
+        <v>0.265327859804999</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.85632183908046</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.94</v>
+        <v>10.71</v>
       </c>
       <c r="K32" t="n">
-        <v>0.179847070325823</v>
+        <v>-0.0083569498493166</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.848799094903171</v>
+        <v>-0.035550468363801</v>
       </c>
       <c r="M32" t="n">
-        <v>0.581725854926823</v>
+        <v>0.0137363102295188</v>
       </c>
       <c r="N32" t="n">
-        <v>3.02772845666368</v>
+        <v>-0.0780294103577653</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3308,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3337,7 +3345,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3347,11 +3359,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3362,31 +3374,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.036819135060151</v>
+        <v>0.0156283987358472</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0730337078651685</v>
       </c>
       <c r="H33" t="n">
+        <v>0.112359550561798</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.46</v>
+        <v>0.01</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0171336920529801</v>
+        <v>0.0001520924422236</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0246342936047258</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0047623352900328</v>
+        <v>0.000302192498621</v>
       </c>
       <c r="N33" t="n">
-        <v>-3.72471566369134</v>
+        <v>1.5209244222361</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3424,7 +3436,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3434,14 +3450,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3449,31 +3465,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.704247481502542</v>
+        <v>0.159671390291146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H34" t="n">
+        <v>0.610169491525424</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
-        <v>110.24</v>
+        <v>130</v>
       </c>
       <c r="K34" t="n">
-        <v>0.570926143024619</v>
+        <v>1.66173794358508</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.757770137282942</v>
+        <v>-0.835214076527631</v>
       </c>
       <c r="M34" t="n">
-        <v>2.15419908873968</v>
+        <v>4.90539526522983</v>
       </c>
       <c r="N34" t="n">
-        <v>0.51789381624149</v>
+        <v>1.27825995660391</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3482,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3511,7 +3527,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3521,46 +3541,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.464222020750296</v>
+        <v>0.967612955042191</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.883040935672515</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9</v>
+        <v>0.16374269005848</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>6.06</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0171277842907385</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.237230167118656</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.218780995974693</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.282636704467631</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3569,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3598,7 +3618,1253 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0811776218302919</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.528662420382166</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.089171974522293</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0206560218460907</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.2375</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.68125</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.1105</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.000320794774338</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0021204659488055</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.290312012975629</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.886718621505077</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.494186046511628</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0064867671125353</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0022973682513704</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0161364121569789</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.08413446319760549</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.205818041930487</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0786516853932584</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.6741573033707861</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.000353948378425</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0001966167604801</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0015487695766833</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.294956982020838</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.237994143152269</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0112359550561798</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.5730337078651681</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0011113659341157</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.001661737943585</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0036925375011776</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.483202580050342</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0168539325842697</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.410112359550562</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0002855431123845</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0003637555276824</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.787555434859224</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.921348314606742</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0124958008754158</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0464122025312453</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0154103424390897</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.536300466756042</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0055499494463428</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0430041839738948</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0235391649347861</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.35364620642508</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>110.48</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.20055203512263</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-2.82031350833415</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5.30901840768906</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.89695151622251</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.179847070325823</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.848799094903171</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.581725854926823</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.02772845666368</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.036819135060151</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0171336920529801</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0246342936047258</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.0047623352900328</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-3.72471566369134</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.704247481502542</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>110.24</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.570926143024619</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.757770137282942</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.15419908873968</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.51789381624149</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.464222020750296</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0171277842907385</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.237230167118656</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.218780995974693</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.282636704467631</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.578457385365008</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>110.48</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.202354570637119</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.649064098050546</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.995845488534463</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.183159459302244</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OrouaatAlmadaleSlackline_4c8ea80f1e.xlsx
+++ b/trend_results/Rivers/OrouaatAlmadaleSlackline_4c8ea80f1e.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.320581618176667</v>
+        <v>0.324751751019087</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="H2" t="n">
-        <v>0.975</v>
+        <v>0.925</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>2.825</v>
       </c>
       <c r="K2" t="n">
-        <v>0.106619827983634</v>
+        <v>0.125236586570112</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.480400735800155</v>
+        <v>-0.312024689162969</v>
       </c>
       <c r="M2" t="n">
-        <v>0.652695800245046</v>
+        <v>0.7720907245488</v>
       </c>
       <c r="N2" t="n">
-        <v>3.77415320296049</v>
+        <v>4.43315350690663</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.801967089645531</v>
+        <v>0.375643043952579</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0178571428571429</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="H3" t="n">
-        <v>0.767857142857143</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08280292930281841</v>
+        <v>-0.0132577132486388</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0260769467548451</v>
+        <v>-0.236007231349408</v>
       </c>
       <c r="M3" t="n">
-        <v>0.293702989693263</v>
+        <v>0.0951335535153096</v>
       </c>
       <c r="N3" t="n">
-        <v>6.9002441085682</v>
+        <v>-1.20524665896717</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.908339386888746</v>
+        <v>0.770113676725717</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.879310344827586</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.835</v>
+        <v>10.795</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0754903808657218</v>
+        <v>0.0342246543778801</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0071096103692357</v>
+        <v>-0.0422280170651728</v>
       </c>
       <c r="M4" t="n">
-        <v>0.105902361068041</v>
+        <v>0.0937498575663437</v>
       </c>
       <c r="N4" t="n">
-        <v>0.696727096130335</v>
+        <v>0.317041726520427</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.544444676214665</v>
+        <v>0.09016188758777011</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.338983050847458</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0004658801020408</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0007925029854657</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0007146603720172</v>
+        <v>0.0012277310924369</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4.23527365491651</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.836471029225652</v>
+        <v>0.550745291968649</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.672413793103448</v>
+        <v>0.655172413793103</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="K6" t="n">
-        <v>-17.3928571428571</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-50.5182574973152</v>
+        <v>-25.9686275482602</v>
       </c>
       <c r="M6" t="n">
-        <v>8.558235771151731</v>
+        <v>17.3928571428571</v>
       </c>
       <c r="N6" t="n">
-        <v>-8.91941391941392</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1029,13 +1029,13 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.945454545454545</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="H7" t="n">
-        <v>0.127272727272727</v>
+        <v>0.0925925925925926</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.379849454732917</v>
+        <v>0.957611986952258</v>
       </c>
       <c r="G8" t="n">
-        <v>0.491525423728814</v>
+        <v>0.525423728813559</v>
       </c>
       <c r="H8" t="n">
-        <v>0.135593220338983</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1194,35 +1194,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.169156009793096</v>
+        <v>0.0004099206685396</v>
       </c>
       <c r="G9" t="n">
-        <v>0.152542372881356</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H9" t="n">
-        <v>0.779661016949153</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.118</v>
+        <v>0.144</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0030838021453069</v>
+        <v>0.014884271978022</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0068580608634582</v>
+        <v>0.006136792907515</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0119773629133197</v>
+        <v>0.0458100259590088</v>
       </c>
       <c r="N9" t="n">
-        <v>2.61339164856519</v>
+        <v>10.3362999847375</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.366072285873366</v>
+        <v>0.621683551954595</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.741379310344828</v>
+        <v>0.771929824561403</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0089963054187192</v>
+        <v>0.009967191777893999</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.06465137723319089</v>
+        <v>-0.0425183202374524</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0401722703364349</v>
+        <v>0.0607593925459785</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.116835135308043</v>
+        <v>0.12894167888608</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1372,35 +1372,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.330416471654861</v>
+        <v>0.0013938266676691</v>
       </c>
       <c r="G11" t="n">
         <v>0.0847457627118644</v>
       </c>
       <c r="H11" t="n">
-        <v>0.813559322033898</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0.125</v>
+        <v>0.152</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0023232679058884</v>
+        <v>0.0160549450549451</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.010203103865926</v>
+        <v>0.0060630051912454</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0123038930595166</v>
+        <v>0.0444450177924953</v>
       </c>
       <c r="N11" t="n">
-        <v>1.85861432471078</v>
+        <v>10.5624638519375</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1463,35 +1463,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.996134161053842</v>
+        <v>0.0404277991850262</v>
       </c>
       <c r="G12" t="n">
-        <v>0.254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.542372881355932</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>0.28</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.35954948016943</v>
+        <v>0.0200549167910279</v>
       </c>
       <c r="L12" t="n">
-        <v>-6.28238453242048</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.380994410261036</v>
+        <v>0.0399600678226069</v>
       </c>
       <c r="N12" t="n">
-        <v>-16.9943685021178</v>
+        <v>7.16247028250997</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,14 +1543,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.877753290295433</v>
+        <v>0.328159003510073</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.728813559322034</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.24</v>
+        <v>0.023</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.009845013477088899</v>
+        <v>0.0009574049803407</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0263662857557318</v>
+        <v>-0.0023755290550042</v>
       </c>
       <c r="M13" t="n">
-        <v>0.009934089890225199</v>
+        <v>0.0036424711201761</v>
       </c>
       <c r="N13" t="n">
-        <v>-4.10208894878706</v>
+        <v>4.16263034930765</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.875312674562009</v>
+        <v>0.520862398287017</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.644067796610169</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.023</v>
+        <v>3.19</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.002024948024948</v>
+        <v>-0.0098185483870967</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0066117297582742</v>
+        <v>-0.505227644067103</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0009030758582621</v>
+        <v>0.577953389722376</v>
       </c>
       <c r="N14" t="n">
-        <v>-8.80412184760011</v>
+        <v>-0.307791485488926</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.997557968494726</v>
+        <v>0.0060650032625461</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.0113636363636364</v>
       </c>
       <c r="H15" t="n">
-        <v>0.966101694915254</v>
+        <v>0.829545454545455</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>1.575</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.5632664557831299</v>
+        <v>0.183962912087912</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.40994526683196</v>
+        <v>0.0433739046761782</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0934433862133535</v>
+        <v>0.33273519974664</v>
       </c>
       <c r="N15" t="n">
-        <v>-19.5578630480254</v>
+        <v>11.6801848944706</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0482153671004391</v>
+        <v>0.004550672872062</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0192307692307692</v>
       </c>
       <c r="H16" t="n">
-        <v>0.826086956521739</v>
+        <v>0.663461538461538</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1.55</v>
+        <v>1.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09712229891956781</v>
+        <v>-0.0823872180451128</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0006093072770041</v>
+        <v>-0.173953396726166</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2355045863201</v>
+        <v>-0.0244811838126327</v>
       </c>
       <c r="N16" t="n">
-        <v>6.26595476900437</v>
+        <v>-6.8656015037594</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0052558065391109</v>
+        <v>0.999429508431638</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0181818181818182</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.627272727272727</v>
+        <v>0.88034188034188</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.925</v>
+        <v>10.53</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.06646951774340309</v>
+        <v>0.0602060439560438</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.15051510989011</v>
+        <v>0.0304008209990418</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.025405499819472</v>
+        <v>0.09004396902527891</v>
       </c>
       <c r="N17" t="n">
-        <v>-3.45296196069626</v>
+        <v>0.571757302526532</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,46 +1998,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.140404188255612</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0672268907563025</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.159663865546218</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.99978414174165</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.871794871794872</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.4</v>
+        <v>0.011</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0674507476733243</v>
+        <v>0.0001172552166934</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0379844006568143</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0942975113010904</v>
+        <v>0.0004366407650926</v>
       </c>
       <c r="N18" t="n">
-        <v>0.648564881474272</v>
+        <v>1.06595651539472</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2100,35 +2100,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0792083560209782</v>
+        <v>0.480514965069111</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0756302521008403</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H19" t="n">
-        <v>0.159663865546218</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.011</v>
+        <v>146</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001961600429645</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-7.34769563696999</v>
       </c>
       <c r="M19" t="n">
-        <v>0.000506588072122</v>
+        <v>7.51524052094432</v>
       </c>
       <c r="N19" t="n">
-        <v>1.78327311785959</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2191,35 +2191,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.326688088026731</v>
+        <v>0.860556621099532</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.929203539823009</v>
       </c>
       <c r="H20" t="n">
-        <v>0.576271186440678</v>
+        <v>0.115044247787611</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>148</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>1.58651061776062</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-4.98371750014272</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>10.7568017874509</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1.07196663362204</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,23 +2282,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.789631221922468</v>
+        <v>0.982731702059204</v>
       </c>
       <c r="G21" t="n">
-        <v>0.93859649122807</v>
+        <v>0.487394957983193</v>
       </c>
       <c r="H21" t="n">
-        <v>0.105263157894737</v>
+        <v>0.109243697478992</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2362,46 +2362,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.950447853607697</v>
+        <v>0.0022882274993796</v>
       </c>
       <c r="G22" t="n">
-        <v>0.411764705882353</v>
+        <v>0.19327731092437</v>
       </c>
       <c r="H22" t="n">
-        <v>0.117647058823529</v>
+        <v>0.739495798319328</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002</v>
+        <v>0.142</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0032786535303776</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.008546984678420201</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.30891093688568</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2453,46 +2453,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0030662527719981</v>
+        <v>0.875994683210283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.235294117647059</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.714285714285714</v>
+        <v>0.577586206896552</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.103</v>
+        <v>7.71</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0017129727685325</v>
+        <v>0.0104357142857143</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0040744333082347</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0039361319516495</v>
+        <v>0.0266074040840469</v>
       </c>
       <c r="N23" t="n">
-        <v>1.66308035779857</v>
+        <v>0.135352973874375</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2530,11 +2530,7 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2544,46 +2540,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.515037273886536</v>
+        <v>0.0042425089464496</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="H24" t="n">
-        <v>0.564102564102564</v>
+        <v>0.739495798319328</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>7.71</v>
+        <v>0.152</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0038342081241442</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0129646986864499</v>
+        <v>0.0010002282062984</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0153484549674466</v>
+        <v>0.0073832453929169</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.52250534483173</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2592,7 +2588,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2621,7 +2617,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2646,31 +2646,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0041042640482437</v>
+        <v>0.113653403846845</v>
       </c>
       <c r="G25" t="n">
-        <v>0.100840336134454</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6890756302521009</v>
+        <v>0.630252100840336</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.12</v>
+        <v>0.286</v>
       </c>
       <c r="K25" t="n">
-        <v>0.001994085532302</v>
+        <v>0.0033447802197802</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0007084881835344</v>
+        <v>-0.0016370459436768</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0047726411669712</v>
+        <v>0.009938775510203999</v>
       </c>
       <c r="N25" t="n">
-        <v>1.66173794358508</v>
+        <v>1.16950357334973</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2733,32 +2733,32 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.58521332758856</v>
+        <v>0.489546068081609</v>
       </c>
       <c r="G26" t="n">
-        <v>0.168067226890756</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.428571428571429</v>
+        <v>0.46218487394958</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.6</v>
+        <v>0.023</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.08317604277886941</v>
+        <v>-0.0006684524398144</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0907761502115343</v>
+        <v>0.000966656839705</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2828,31 +2828,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.08237145475870961</v>
+        <v>0.531226272867413</v>
       </c>
       <c r="G27" t="n">
-        <v>0.008403361344537799</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.663865546218487</v>
+        <v>0.949579831932773</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.24</v>
+        <v>3.19</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0033234758871701</v>
+        <v>-0.0049225067385444</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0001265722255504</v>
+        <v>-0.07805596454847891</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0079714216116874</v>
+        <v>0.0844349777587733</v>
       </c>
       <c r="N27" t="n">
-        <v>1.38478161965423</v>
+        <v>-0.154310556067225</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2904,14 +2904,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2919,31 +2919,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.129047958681017</v>
+        <v>0.0098256651959008</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0071428571428571</v>
       </c>
       <c r="H28" t="n">
-        <v>0.436974789915966</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02</v>
+        <v>1.45</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0004434439498178</v>
+        <v>0.0491054299204771</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0001999178981937</v>
+        <v>0.0107995299950871</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0012262834727366</v>
+        <v>0.116621882315303</v>
       </c>
       <c r="N28" t="n">
-        <v>2.21721974908944</v>
+        <v>3.38658137382601</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2995,11 +2995,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3010,31 +3010,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.101949234962105</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0443037974683544</v>
       </c>
       <c r="H29" t="n">
-        <v>0.949579831932773</v>
+        <v>0.537974683544304</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>2.28</v>
+        <v>1.875</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0006732718894009</v>
+        <v>-0.0158104012651641</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0541747954814683</v>
+        <v>-0.0499502683478135</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0501719920523163</v>
+        <v>0.0070593016703062</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0295294688333738</v>
+        <v>-0.843221400808751</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0051790568406435</v>
+        <v>0.441448432837334</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.757575757575758</v>
+        <v>0.852272727272727</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.325</v>
+        <v>10.615</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0499794745484401</v>
+        <v>-0.002141391440297</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0126304869960088</v>
+        <v>-0.0250858516483513</v>
       </c>
       <c r="M30" t="n">
-        <v>0.136139848062212</v>
+        <v>0.0181925360227987</v>
       </c>
       <c r="N30" t="n">
-        <v>3.77203581497661</v>
+        <v>-0.0201732589759492</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3177,46 +3177,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.017018479753213</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.06741573033707859</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.112359550561798</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.227202602361298</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0548780487804878</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.530487804878049</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.2</v>
+        <v>0.01</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0068112452776828</v>
+        <v>0.0001532088926174</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0456748796195712</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0149791562380947</v>
+        <v>0.0003042482299042</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.309602058076495</v>
+        <v>1.5320889261745</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3283,31 +3283,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.265327859804999</v>
+        <v>0.0584928901106255</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H32" t="n">
-        <v>0.85632183908046</v>
+        <v>0.587570621468927</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>10.71</v>
+        <v>129</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0083569498493166</v>
+        <v>2.33760598427132</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.035550468363801</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0137363102295188</v>
+        <v>5.25315827823158</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.0780294103577653</v>
+        <v>1.81209766222583</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3370,35 +3370,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0156283987358472</v>
+        <v>0.978044230680117</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0730337078651685</v>
+        <v>0.883720930232558</v>
       </c>
       <c r="H33" t="n">
-        <v>0.112359550561798</v>
+        <v>0.162790697674419</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001520924422236</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.000302192498621</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1.5209244222361</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,46 +3450,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.159671390291146</v>
+        <v>0.313136071923633</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0056497175141242</v>
+        <v>0.550295857988166</v>
       </c>
       <c r="H34" t="n">
-        <v>0.610169491525424</v>
+        <v>0.0828402366863905</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>130</v>
+        <v>0.001</v>
       </c>
       <c r="K34" t="n">
-        <v>1.66173794358508</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.835214076527631</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>4.90539526522983</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.27825995660391</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3541,46 +3541,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.967612955042191</v>
+        <v>0.0005967014405619</v>
       </c>
       <c r="G35" t="n">
-        <v>0.883040935672515</v>
+        <v>0.224852071005917</v>
       </c>
       <c r="H35" t="n">
-        <v>0.16374269005848</v>
+        <v>0.680473372781065</v>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.115</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0018599538619275</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0047456311941226</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.61735118428482</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3643,35 +3643,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0811776218302919</v>
+        <v>0.618172181637976</v>
       </c>
       <c r="G36" t="n">
-        <v>0.528662420382166</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.089171974522293</v>
+        <v>0.479768786127168</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.002</v>
+        <v>7.74</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0015437447168216</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0072059636643499</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0104134615637496</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.0199450221811582</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3709,11 +3709,7 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3723,7 +3719,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3734,35 +3730,35 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0206560218460907</v>
+        <v>0.0477154578365076</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2375</v>
+        <v>0.06741573033707859</v>
       </c>
       <c r="H37" t="n">
-        <v>0.68125</v>
+        <v>0.691011235955056</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1105</v>
+        <v>0.1245</v>
       </c>
       <c r="K37" t="n">
-        <v>0.000320794774338</v>
+        <v>0.001284837268615</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0021204659488055</v>
+        <v>0.0035160242220101</v>
       </c>
       <c r="N37" t="n">
-        <v>0.290312012975629</v>
+        <v>1.03199780611651</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3802,7 +3798,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3814,14 +3810,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3829,31 +3825,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.886718621505077</v>
+        <v>0.0501035824345717</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="H38" t="n">
-        <v>0.494186046511628</v>
+        <v>0.589887640449438</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>7.71</v>
+        <v>0.2465</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0064867671125353</v>
+        <v>0.0024965823650034</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0022973682513704</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0161364121569789</v>
+        <v>0.0059181957883083</v>
       </c>
       <c r="N38" t="n">
-        <v>0.08413446319760549</v>
+        <v>1.0128123184598</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3862,7 +3858,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3891,7 +3887,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3916,31 +3916,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.205818041930487</v>
+        <v>0.237713674169983</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0786516853932584</v>
+        <v>0.0168539325842697</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6741573033707861</v>
+        <v>0.421348314606742</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0.12</v>
+        <v>0.021</v>
       </c>
       <c r="K39" t="n">
-        <v>0.000353948378425</v>
+        <v>0.0001995363754872</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0001966167604801</v>
+        <v>-0.0001600046761121</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0015487695766833</v>
+        <v>0.0006233415970834</v>
       </c>
       <c r="N39" t="n">
-        <v>0.294956982020838</v>
+        <v>0.950173216606113</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4007,31 +4007,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.237994143152269</v>
+        <v>0.363829667343861</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0112359550561798</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5730337078651681</v>
+        <v>0.910112359550562</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.23</v>
+        <v>2.945</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0011113659341157</v>
+        <v>0.006793683661754</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.001661737943585</v>
+        <v>-0.0232560956031781</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0036925375011776</v>
+        <v>0.0576876699252807</v>
       </c>
       <c r="N40" t="n">
-        <v>0.483202580050342</v>
+        <v>0.230685353540035</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4083,46 +4083,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.5</v>
+        <v>0.295026562674042</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0168539325842697</v>
+        <v>0.0473684210526316</v>
       </c>
       <c r="H41" t="n">
-        <v>0.410112359550562</v>
+        <v>0.505263157894737</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>0.02</v>
+        <v>1.85</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-0.0040620493579329</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0002855431123845</v>
+        <v>-0.0236112338991495</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0003637555276824</v>
+        <v>0.0149791691987461</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-0.219570235563943</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4174,46 +4174,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.60904534997844</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0619047619047619</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.123809523809524</v>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.787555434859224</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.921348314606742</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>2.33</v>
+        <v>0.01</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0124958008754158</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0464122025312453</v>
+        <v>-0.0001113392010075</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0154103424390897</v>
+        <v>3.55541228262419e-05</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.536300466756042</v>
+        <v>0</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4265,14 +4265,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4280,31 +4280,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.59675202974633</v>
+        <v>0.170412871595222</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.0047846889952153</v>
       </c>
       <c r="H43" t="n">
+        <v>0.578947368421053</v>
+      </c>
+      <c r="I43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>0.41</v>
+        <v>129</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0055499494463428</v>
+        <v>1.40977806368607</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0430041839738948</v>
+        <v>-0.835240820843418</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0235391649347861</v>
+        <v>4.0171028459054</v>
       </c>
       <c r="N43" t="n">
-        <v>1.35364620642508</v>
+        <v>1.09285121215975</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4342,7 +4342,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4352,46 +4356,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.889664319040077</v>
+        <v>0.9900016877957249</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.871287128712871</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.183168316831683</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J44" t="n">
-        <v>110.48</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="n">
-        <v>3.20055203512263</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-2.82031350833415</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>5.30901840768906</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2.89695151622251</v>
+        <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4400,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4429,7 +4433,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4439,46 +4447,46 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.59675202974633</v>
+        <v>0.0115741790080345</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.229166666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.677083333333333</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>5.94</v>
+        <v>0.1155</v>
       </c>
       <c r="K45" t="n">
-        <v>0.179847070325823</v>
+        <v>0.0006017298187808</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.848799094903171</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.581725854926823</v>
+        <v>0.0026214114832535</v>
       </c>
       <c r="N45" t="n">
-        <v>3.02772845666368</v>
+        <v>0.5209781980786919</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4487,7 +4495,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4516,7 +4524,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4526,46 +4538,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.036819135060151</v>
+        <v>0.11603688170543</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.0904761904761905</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.652380952380952</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
-        <v>0.46</v>
+        <v>0.123</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0171336920529801</v>
+        <v>0.0004820591939859</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0246342936047258</v>
+        <v>-0.0002217412209655</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0047623352900328</v>
+        <v>0.001798994431013</v>
       </c>
       <c r="N46" t="n">
-        <v>-3.72471566369134</v>
+        <v>0.391918043891028</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4574,7 +4586,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4603,7 +4615,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4613,14 +4629,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4628,31 +4644,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.704247481502542</v>
+        <v>0.545315697091779</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0.90952380952381</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>110.24</v>
+        <v>2.945</v>
       </c>
       <c r="K47" t="n">
-        <v>0.570926143024619</v>
+        <v>-0.0025925769354512</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.757770137282942</v>
+        <v>-0.0321369000211858</v>
       </c>
       <c r="M47" t="n">
-        <v>2.15419908873968</v>
+        <v>0.0277303017174163</v>
       </c>
       <c r="N47" t="n">
-        <v>0.51789381624149</v>
+        <v>-0.0880331726808587</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4661,7 +4677,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4690,7 +4706,11 @@
           <t>Mana_12a</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4700,11 +4720,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4715,31 +4735,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.464222020750296</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>6.06</v>
+        <v>0.41</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0171277842907385</v>
+        <v>-0.0198604215300966</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.237230167118656</v>
+        <v>-0.0430041839738948</v>
       </c>
       <c r="M48" t="n">
-        <v>0.218780995974693</v>
+        <v>-0.0052553393257858</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.282636704467631</v>
+        <v>-4.84400525124308</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4748,7 +4768,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4791,7 +4811,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -4802,7 +4822,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.578457385365008</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -4814,19 +4834,19 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>110.48</v>
+        <v>110</v>
       </c>
       <c r="K49" t="n">
-        <v>0.202354570637119</v>
+        <v>3.20055203512263</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.649064098050546</v>
+        <v>-5.95032110686047</v>
       </c>
       <c r="M49" t="n">
-        <v>0.995845488534463</v>
+        <v>5.30901840768906</v>
       </c>
       <c r="N49" t="n">
-        <v>0.183159459302244</v>
+        <v>2.90959275920239</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4835,7 +4855,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4865,6 +4885,702 @@
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.367170620463267</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.848799094903171</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.0072384298599629</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-6.18132357682268</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.006133030693106</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.4455</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.0195767841011744</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.0249742821416092</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.0132396609052462</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-4.39433986558347</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>110.24</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.0720698500394633</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-1.04115830020779</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.72016002757219</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.0653754082360879</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.088983712984032</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.09686187845303849</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.31678050971774</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.0446784755094195</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.59838083255839</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>15</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.077314875982908</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.008466059602649</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.0180621295273442</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.0009666272055271</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-1.84044773970631</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>15</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.346090386360938</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>110.48</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.246929577464791</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.815495700645268</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.651164303018349</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.223506134562627</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.434676121183963</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.0201055045871558</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.100741944365142</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0969725328705003</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.33177400308838</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Oroua at Almadale Slackline</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>20</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.944444444444444</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.509979355003035</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.568136864791662</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1826486</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5549602</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OrouaatAlmadaleSlackline_4c8ea80f1e.xlsx
+++ b/trend_results/Rivers/OrouaatAlmadaleSlackline_4c8ea80f1e.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="70">
   <si>
     <t>site name</t>
   </si>
@@ -136,58 +136,64 @@
     <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>&lt; 3 unique values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>&lt; 5 Non-censored values</t>
-  </si>
-  <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Manawatu District</t>
@@ -575,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,31 +675,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.324751751019087</v>
+        <v>0.866457523369052</v>
       </c>
       <c r="G2">
-        <v>0.025</v>
+        <v>0.0697674418604651</v>
       </c>
       <c r="H2">
-        <v>0.925</v>
+        <v>0.86046511627907</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>2.825</v>
+        <v>2.85</v>
       </c>
       <c r="K2">
-        <v>0.125236586570112</v>
+        <v>-0.279798136645963</v>
       </c>
       <c r="L2">
-        <v>-0.312024689162969</v>
+        <v>-0.707677976270505</v>
       </c>
       <c r="M2">
-        <v>0.7720907245488</v>
+        <v>0.184307699234024</v>
       </c>
       <c r="N2">
-        <v>4.43315350690663</v>
+        <v>-9.817478478805709</v>
       </c>
       <c r="O2" t="s">
         <v>45</v>
@@ -708,19 +714,19 @@
         <v>5549602</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -737,34 +743,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>0.375643043952579</v>
+        <v>0.051643960757471</v>
       </c>
       <c r="G3">
-        <v>0.0196078431372549</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H3">
-        <v>0.764705882352941</v>
+        <v>0.8409090909090911</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K3">
-        <v>-0.0132577132486388</v>
+        <v>-0.168296514169156</v>
       </c>
       <c r="L3">
-        <v>-0.236007231349408</v>
+        <v>-0.566364872314593</v>
       </c>
       <c r="M3">
-        <v>0.0951335535153096</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-1.20524665896717</v>
+        <v>-17.9038844860804</v>
       </c>
       <c r="O3" t="s">
         <v>45</v>
@@ -779,19 +785,19 @@
         <v>5549602</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -808,34 +814,34 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>0.770113676725717</v>
+        <v>0.213639453085988</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.931034482758621</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.795</v>
+        <v>10.9</v>
       </c>
       <c r="K4">
-        <v>0.0342246543778801</v>
+        <v>-0.0241750914292711</v>
       </c>
       <c r="L4">
-        <v>-0.0422280170651728</v>
+        <v>-0.103491343762013</v>
       </c>
       <c r="M4">
-        <v>0.0937498575663437</v>
+        <v>0.0315125821694948</v>
       </c>
       <c r="N4">
-        <v>0.317041726520427</v>
+        <v>-0.221789829626341</v>
       </c>
       <c r="O4" t="s">
         <v>45</v>
@@ -850,19 +856,19 @@
         <v>5549602</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -879,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.09016188758777011</v>
+        <v>0.0003741961633076</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -894,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K5">
-        <v>0.0004658801020408</v>
+        <v>0.001337912087912</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0006313448073184</v>
       </c>
       <c r="M5">
-        <v>0.0012277310924369</v>
+        <v>0.0019962056483514</v>
       </c>
       <c r="N5">
-        <v>4.23527365491651</v>
+        <v>13.3791208791209</v>
       </c>
       <c r="O5" t="s">
         <v>45</v>
@@ -921,19 +927,19 @@
         <v>5549602</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -953,37 +959,37 @@
         <v>41</v>
       </c>
       <c r="F6">
-        <v>0.550745291968649</v>
+        <v>0.767778092232492</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.655172413793103</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-4.89174107142858</v>
       </c>
       <c r="L6">
-        <v>-25.9686275482602</v>
+        <v>-27.4072128402197</v>
       </c>
       <c r="M6">
-        <v>17.3928571428571</v>
+        <v>6.56320519604307</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-6.11467633928572</v>
       </c>
       <c r="O6" t="s">
         <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q6">
         <v>1826486</v>
@@ -992,19 +998,19 @@
         <v>5549602</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1024,13 +1030,13 @@
         <v>42</v>
       </c>
       <c r="G7">
-        <v>0.944444444444444</v>
+        <v>0.963636363636364</v>
       </c>
       <c r="H7">
-        <v>0.0925925925925926</v>
+        <v>0.0545454545454545</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="s">
         <v>45</v>
@@ -1045,19 +1051,19 @@
         <v>5549602</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1074,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>0.957611986952258</v>
+        <v>0.9902741213006599</v>
       </c>
       <c r="G8">
-        <v>0.525423728813559</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="H8">
         <v>0.11864406779661</v>
@@ -1116,19 +1122,19 @@
         <v>5549602</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1148,13 +1154,13 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.0004099206685396</v>
+        <v>0.0952151319127621</v>
       </c>
       <c r="G9">
-        <v>0.135593220338983</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="H9">
-        <v>0.813559322033898</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1163,22 +1169,22 @@
         <v>0.144</v>
       </c>
       <c r="K9">
-        <v>0.014884271978022</v>
+        <v>0.0034424029917451</v>
       </c>
       <c r="L9">
-        <v>0.006136792907515</v>
+        <v>-0.0010570076258468</v>
       </c>
       <c r="M9">
-        <v>0.0458100259590088</v>
+        <v>0.0137001358491187</v>
       </c>
       <c r="N9">
-        <v>10.3362999847375</v>
+        <v>2.39055763315632</v>
       </c>
       <c r="O9" t="s">
         <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q9">
         <v>1826486</v>
@@ -1187,19 +1193,19 @@
         <v>5549602</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1216,40 +1222,40 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10">
-        <v>0.621683551954595</v>
+        <v>0.985652691156898</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.771929824561403</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.73</v>
+        <v>7.8</v>
       </c>
       <c r="K10">
-        <v>0.009967191777893999</v>
+        <v>0.0637475759534584</v>
       </c>
       <c r="L10">
-        <v>-0.0425183202374524</v>
+        <v>0.0186352040816326</v>
       </c>
       <c r="M10">
-        <v>0.0607593925459785</v>
+        <v>0.109238997814693</v>
       </c>
       <c r="N10">
-        <v>0.12894167888608</v>
+        <v>0.817276614787928</v>
       </c>
       <c r="O10" t="s">
         <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q10">
         <v>1826486</v>
@@ -1258,16 +1264,16 @@
         <v>5549602</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1287,13 +1293,13 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.0013938266676691</v>
+        <v>0.109935855314351</v>
       </c>
       <c r="G11">
-        <v>0.0847457627118644</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H11">
-        <v>0.847457627118644</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1302,22 +1308,22 @@
         <v>0.152</v>
       </c>
       <c r="K11">
-        <v>0.0160549450549451</v>
+        <v>0.0048422790482384</v>
       </c>
       <c r="L11">
-        <v>0.0060630051912454</v>
+        <v>-0.0013043929973604</v>
       </c>
       <c r="M11">
-        <v>0.0444450177924953</v>
+        <v>0.0148559644162336</v>
       </c>
       <c r="N11">
-        <v>10.5624638519375</v>
+        <v>3.18570990015686</v>
       </c>
       <c r="O11" t="s">
         <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q11">
         <v>1826486</v>
@@ -1326,19 +1332,19 @@
         <v>5549602</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1355,34 +1361,34 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>0.0404277991850262</v>
+        <v>0.385542031702176</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.76271186440678</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="K12">
-        <v>0.0200549167910279</v>
+        <v>0.0037389864599686</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>-0.009903042140865801</v>
       </c>
       <c r="M12">
-        <v>0.0399600678226069</v>
+        <v>0.0200495899017289</v>
       </c>
       <c r="N12">
-        <v>7.16247028250997</v>
+        <v>1.43807171537254</v>
       </c>
       <c r="O12" t="s">
         <v>45</v>
@@ -1397,19 +1403,19 @@
         <v>5549602</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1426,40 +1432,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13">
-        <v>0.328159003510073</v>
+        <v>0.269163887085734</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.644067796610169</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.023</v>
+        <v>0.02</v>
       </c>
       <c r="K13">
-        <v>0.0009574049803407</v>
+        <v>0.0006957142857142</v>
       </c>
       <c r="L13">
-        <v>-0.0023755290550042</v>
+        <v>-0.0016579834912149</v>
       </c>
       <c r="M13">
-        <v>0.0036424711201761</v>
+        <v>0.0024269102990033</v>
       </c>
       <c r="N13">
-        <v>4.16263034930765</v>
+        <v>3.47857142857143</v>
       </c>
       <c r="O13" t="s">
         <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q13">
         <v>1826486</v>
@@ -1468,19 +1474,19 @@
         <v>5549602</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1497,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>0.520862398287017</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1512,25 +1518,25 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.19</v>
+        <v>2.88</v>
       </c>
       <c r="K14">
-        <v>-0.0098185483870967</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>-0.505227644067103</v>
+        <v>-0.5281815659699159</v>
       </c>
       <c r="M14">
-        <v>0.577953389722376</v>
+        <v>0.216421090457643</v>
       </c>
       <c r="N14">
-        <v>-0.307791485488926</v>
+        <v>0</v>
       </c>
       <c r="O14" t="s">
         <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q14">
         <v>1826486</v>
@@ -1539,19 +1545,19 @@
         <v>5549602</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1568,40 +1574,40 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15">
-        <v>0.0060650032625461</v>
+        <v>0.025470082340324</v>
       </c>
       <c r="G15">
-        <v>0.0113636363636364</v>
+        <v>0.0337078651685393</v>
       </c>
       <c r="H15">
-        <v>0.829545454545455</v>
+        <v>0.820224719101124</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.575</v>
+        <v>1.55</v>
       </c>
       <c r="K15">
-        <v>0.183962912087912</v>
+        <v>0.111150525215861</v>
       </c>
       <c r="L15">
-        <v>0.0433739046761782</v>
+        <v>0.0090906362903471</v>
       </c>
       <c r="M15">
-        <v>0.33273519974664</v>
+        <v>0.27562805151162</v>
       </c>
       <c r="N15">
-        <v>11.6801848944706</v>
+        <v>7.17100162682974</v>
       </c>
       <c r="O15" t="s">
         <v>45</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q15">
         <v>1826486</v>
@@ -1610,19 +1616,19 @@
         <v>5549602</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1639,40 +1645,40 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>0.004550672872062</v>
+        <v>0.010655871024833</v>
       </c>
       <c r="G16">
-        <v>0.0192307692307692</v>
+        <v>0.01</v>
       </c>
       <c r="H16">
-        <v>0.663461538461538</v>
+        <v>0.68</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="K16">
-        <v>-0.0823872180451128</v>
+        <v>-0.0537718102508179</v>
       </c>
       <c r="L16">
-        <v>-0.173953396726166</v>
+        <v>-0.134678380617472</v>
       </c>
       <c r="M16">
-        <v>-0.0244811838126327</v>
+        <v>-0.0147547567290123</v>
       </c>
       <c r="N16">
-        <v>-6.8656015037594</v>
+        <v>-5.17036637027095</v>
       </c>
       <c r="O16" t="s">
         <v>45</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q16">
         <v>1826486</v>
@@ -1681,19 +1687,19 @@
         <v>5549602</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1710,40 +1716,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17">
-        <v>0.999429508431638</v>
+        <v>0.993488876611237</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.88034188034188</v>
+        <v>0.872881355932203</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.53</v>
+        <v>10.54</v>
       </c>
       <c r="K17">
-        <v>0.0602060439560438</v>
+        <v>0.0405200281709821</v>
       </c>
       <c r="L17">
-        <v>0.0304008209990418</v>
+        <v>0.0195676069337708</v>
       </c>
       <c r="M17">
-        <v>0.09004396902527891</v>
+        <v>0.0731164695177436</v>
       </c>
       <c r="N17">
-        <v>0.571757302526532</v>
+        <v>0.384440494980855</v>
       </c>
       <c r="O17" t="s">
         <v>45</v>
       </c>
       <c r="P17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q17">
         <v>1826486</v>
@@ -1752,19 +1758,19 @@
         <v>5549602</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1784,10 +1790,10 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.140404188255612</v>
+        <v>0.251246364455573</v>
       </c>
       <c r="G18">
-        <v>0.0672268907563025</v>
+        <v>0.0588235294117647</v>
       </c>
       <c r="H18">
         <v>0.159663865546218</v>
@@ -1799,22 +1805,22 @@
         <v>0.011</v>
       </c>
       <c r="K18">
-        <v>0.0001172552166934</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0004366407650926</v>
+        <v>0.0003564653502336</v>
       </c>
       <c r="N18">
-        <v>1.06595651539472</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
         <v>45</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q18">
         <v>1826486</v>
@@ -1823,19 +1829,19 @@
         <v>5549602</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1855,37 +1861,37 @@
         <v>41</v>
       </c>
       <c r="F19">
-        <v>0.480514965069111</v>
+        <v>0.871898406375951</v>
       </c>
       <c r="G19">
         <v>0.008474576271186401</v>
       </c>
       <c r="H19">
-        <v>0.576271186440678</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-4.89174107142858</v>
       </c>
       <c r="L19">
-        <v>-7.34769563696999</v>
+        <v>-13.6663485117169</v>
       </c>
       <c r="M19">
-        <v>7.51524052094432</v>
+        <v>1.67239814390435</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>-3.65055303837954</v>
       </c>
       <c r="O19" t="s">
         <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q19">
         <v>1826486</v>
@@ -1894,19 +1900,19 @@
         <v>5549602</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1926,13 +1932,13 @@
         <v>44</v>
       </c>
       <c r="F20">
-        <v>0.860556621099532</v>
+        <v>0.586076086141975</v>
       </c>
       <c r="G20">
-        <v>0.929203539823009</v>
+        <v>0.956140350877193</v>
       </c>
       <c r="H20">
-        <v>0.115044247787611</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="I20">
         <v>5</v>
@@ -1956,7 +1962,7 @@
         <v>45</v>
       </c>
       <c r="P20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q20">
         <v>1826486</v>
@@ -1965,19 +1971,19 @@
         <v>5549602</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1994,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>0.982731702059204</v>
+        <v>0.994348785639604</v>
       </c>
       <c r="G21">
-        <v>0.487394957983193</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="H21">
-        <v>0.109243697478992</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2036,19 +2042,19 @@
         <v>5549602</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2068,37 +2074,37 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.0022882274993796</v>
+        <v>0.14619317655243</v>
       </c>
       <c r="G22">
         <v>0.19327731092437</v>
       </c>
       <c r="H22">
-        <v>0.739495798319328</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.142</v>
+        <v>0.144</v>
       </c>
       <c r="K22">
-        <v>0.0032786535303776</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.008546984678420201</v>
+        <v>0.0029186542659674</v>
       </c>
       <c r="N22">
-        <v>2.30891093688568</v>
+        <v>0</v>
       </c>
       <c r="O22" t="s">
         <v>45</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q22">
         <v>1826486</v>
@@ -2107,19 +2113,19 @@
         <v>5549602</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2136,40 +2142,40 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23">
-        <v>0.875994683210283</v>
+        <v>0.941721350511759</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.577586206896552</v>
+        <v>0.581196581196581</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.71</v>
+        <v>7.76</v>
       </c>
       <c r="K23">
-        <v>0.0104357142857143</v>
+        <v>0.014308757493071</v>
       </c>
       <c r="L23">
-        <v>-0.0040744333082347</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.0266074040840469</v>
+        <v>0.0283965901806188</v>
       </c>
       <c r="N23">
-        <v>0.135352973874375</v>
+        <v>0.184391204807615</v>
       </c>
       <c r="O23" t="s">
         <v>45</v>
       </c>
       <c r="P23" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q23">
         <v>1826486</v>
@@ -2178,16 +2184,16 @@
         <v>5549602</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2204,40 +2210,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>0.0042425089464496</v>
+        <v>0.325870419671914</v>
       </c>
       <c r="G24">
-        <v>0.100840336134454</v>
+        <v>0.109243697478992</v>
       </c>
       <c r="H24">
-        <v>0.739495798319328</v>
+        <v>0.747899159663866</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>0.152</v>
+        <v>0.155</v>
       </c>
       <c r="K24">
-        <v>0.0038342081241442</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.0010002282062984</v>
+        <v>-0.0009978430372417999</v>
       </c>
       <c r="M24">
-        <v>0.0073832453929169</v>
+        <v>0.0022718406065271</v>
       </c>
       <c r="N24">
-        <v>2.52250534483173</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q24">
         <v>1826486</v>
@@ -2246,19 +2252,19 @@
         <v>5549602</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2275,34 +2281,34 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25">
-        <v>0.113653403846845</v>
+        <v>0.776791591660221</v>
       </c>
       <c r="G25">
         <v>0.008403361344537799</v>
       </c>
       <c r="H25">
-        <v>0.630252100840336</v>
+        <v>0.53781512605042</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.286</v>
+        <v>0.28</v>
       </c>
       <c r="K25">
-        <v>0.0033447802197802</v>
+        <v>-0.0025025693730729</v>
       </c>
       <c r="L25">
-        <v>-0.0016370459436768</v>
+        <v>-0.0070511382171899</v>
       </c>
       <c r="M25">
-        <v>0.009938775510203999</v>
+        <v>0.0025015173272708</v>
       </c>
       <c r="N25">
-        <v>1.16950357334973</v>
+        <v>-0.893774776097489</v>
       </c>
       <c r="O25" t="s">
         <v>45</v>
@@ -2317,19 +2323,19 @@
         <v>5549602</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2349,7 +2355,7 @@
         <v>41</v>
       </c>
       <c r="F26">
-        <v>0.489546068081609</v>
+        <v>0.717680106113616</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2361,25 +2367,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="L26">
-        <v>-0.0006684524398144</v>
+        <v>-0.0009947302567586999</v>
       </c>
       <c r="M26">
-        <v>0.000966656839705</v>
+        <v>0.0004993018228521</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-1.13481016591064</v>
       </c>
       <c r="O26" t="s">
         <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q26">
         <v>1826486</v>
@@ -2388,19 +2394,19 @@
         <v>5549602</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2417,40 +2423,40 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27">
-        <v>0.531226272867413</v>
+        <v>0.489581775569265</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.949579831932773</v>
+        <v>0.9327731092436971</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3.19</v>
+        <v>2.94</v>
       </c>
       <c r="K27">
-        <v>-0.0049225067385444</v>
+        <v>0.001247864707892</v>
       </c>
       <c r="L27">
-        <v>-0.07805596454847891</v>
+        <v>-0.099931445190219</v>
       </c>
       <c r="M27">
-        <v>0.0844349777587733</v>
+        <v>0.07166771492232089</v>
       </c>
       <c r="N27">
-        <v>-0.154310556067225</v>
+        <v>0.0424443778194572</v>
       </c>
       <c r="O27" t="s">
         <v>45</v>
       </c>
       <c r="P27" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q27">
         <v>1826486</v>
@@ -2459,19 +2465,19 @@
         <v>5549602</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2488,40 +2494,40 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>0.0098256651959008</v>
+        <v>0.069687579780028</v>
       </c>
       <c r="G28">
-        <v>0.0071428571428571</v>
+        <v>0.0211267605633803</v>
       </c>
       <c r="H28">
-        <v>0.742857142857143</v>
+        <v>0.71830985915493</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="K28">
-        <v>0.0491054299204771</v>
+        <v>0.025237744404439</v>
       </c>
       <c r="L28">
-        <v>0.0107995299950871</v>
+        <v>-0.0024986319365305</v>
       </c>
       <c r="M28">
-        <v>0.116621882315303</v>
+        <v>0.0776007327386978</v>
       </c>
       <c r="N28">
-        <v>3.38658137382601</v>
+        <v>1.62824157447994</v>
       </c>
       <c r="O28" t="s">
         <v>45</v>
       </c>
       <c r="P28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q28">
         <v>1826486</v>
@@ -2530,19 +2536,19 @@
         <v>5549602</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2562,37 +2568,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.101949234962105</v>
+        <v>0.016889452710188</v>
       </c>
       <c r="G29">
-        <v>0.0443037974683544</v>
+        <v>0.0463576158940397</v>
       </c>
       <c r="H29">
-        <v>0.537974683544304</v>
+        <v>0.562913907284768</v>
       </c>
       <c r="I29">
         <v>6</v>
       </c>
       <c r="J29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="K29">
-        <v>-0.0158104012651641</v>
+        <v>-0.0319780791595084</v>
       </c>
       <c r="L29">
-        <v>-0.0499502683478135</v>
+        <v>-0.0675154722108102</v>
       </c>
       <c r="M29">
-        <v>0.0070593016703062</v>
+        <v>-0.0042990627199155</v>
       </c>
       <c r="N29">
-        <v>-0.843221400808751</v>
+        <v>-1.77655995330602</v>
       </c>
       <c r="O29" t="s">
         <v>45</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q29">
         <v>1826486</v>
@@ -2601,19 +2607,19 @@
         <v>5549602</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2630,40 +2636,40 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F30">
-        <v>0.441448432837334</v>
+        <v>0.702038512329929</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.852272727272727</v>
+        <v>0.829545454545455</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.615</v>
+        <v>10.55</v>
       </c>
       <c r="K30">
-        <v>-0.002141391440297</v>
+        <v>0.007996715927750499</v>
       </c>
       <c r="L30">
-        <v>-0.0250858516483513</v>
+        <v>-0.0124829118250169</v>
       </c>
       <c r="M30">
-        <v>0.0181925360227987</v>
+        <v>0.0257711346647368</v>
       </c>
       <c r="N30">
-        <v>-0.0201732589759492</v>
+        <v>0.0757982552393421</v>
       </c>
       <c r="O30" t="s">
         <v>45</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q30">
         <v>1826486</v>
@@ -2672,19 +2678,19 @@
         <v>5549602</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2701,16 +2707,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31">
-        <v>0.017018479753213</v>
+        <v>0.0066656417337735</v>
       </c>
       <c r="G31">
-        <v>0.06741573033707859</v>
+        <v>0.0617977528089888</v>
       </c>
       <c r="H31">
-        <v>0.112359550561798</v>
+        <v>0.106741573033708</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2719,22 +2725,22 @@
         <v>0.01</v>
       </c>
       <c r="K31">
-        <v>0.0001532088926174</v>
+        <v>0.000177780481869</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0003042482299042</v>
+        <v>0.0003213536640489</v>
       </c>
       <c r="N31">
-        <v>1.5320889261745</v>
+        <v>1.77780481869068</v>
       </c>
       <c r="O31" t="s">
         <v>45</v>
       </c>
       <c r="P31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q31">
         <v>1826486</v>
@@ -2743,19 +2749,19 @@
         <v>5549602</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2769,43 +2775,43 @@
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F32">
-        <v>0.0584928901106255</v>
+        <v>0.182132321883978</v>
       </c>
       <c r="G32">
         <v>0.0056497175141242</v>
       </c>
       <c r="H32">
-        <v>0.587570621468927</v>
+        <v>0.598870056497175</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="K32">
-        <v>2.33760598427132</v>
+        <v>1.50176674252802</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>-1.30504198395599</v>
       </c>
       <c r="M32">
-        <v>5.25315827823158</v>
+        <v>4.78720964930262</v>
       </c>
       <c r="N32">
-        <v>1.81209766222583</v>
+        <v>1.25147228544001</v>
       </c>
       <c r="O32" t="s">
         <v>45</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q32">
         <v>1826486</v>
@@ -2814,19 +2820,19 @@
         <v>5549602</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2846,7 +2852,7 @@
         <v>44</v>
       </c>
       <c r="F33">
-        <v>0.978044230680117</v>
+        <v>0.998776427217452</v>
       </c>
       <c r="G33">
         <v>0.883720930232558</v>
@@ -2885,19 +2891,19 @@
         <v>5549602</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2914,16 +2920,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <v>0.313136071923633</v>
+        <v>0.661659584713619</v>
       </c>
       <c r="G34">
-        <v>0.550295857988166</v>
+        <v>0.561797752808989</v>
       </c>
       <c r="H34">
-        <v>0.0828402366863905</v>
+        <v>0.0786516853932584</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2947,7 +2953,7 @@
         <v>45</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q34">
         <v>1826486</v>
@@ -2956,19 +2962,19 @@
         <v>5549602</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2988,37 +2994,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.0005967014405619</v>
+        <v>0.0123763908803473</v>
       </c>
       <c r="G35">
-        <v>0.224852071005917</v>
+        <v>0.224719101123595</v>
       </c>
       <c r="H35">
-        <v>0.680473372781065</v>
+        <v>0.662921348314607</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35">
-        <v>0.115</v>
+        <v>0.113</v>
       </c>
       <c r="K35">
-        <v>0.0018599538619275</v>
+        <v>0.0006007363142454</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.0047456311941226</v>
+        <v>0.0023162534547125</v>
       </c>
       <c r="N35">
-        <v>1.61735118428482</v>
+        <v>0.531625056854398</v>
       </c>
       <c r="O35" t="s">
         <v>45</v>
       </c>
       <c r="P35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q35">
         <v>1826486</v>
@@ -3027,19 +3033,19 @@
         <v>5549602</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3056,40 +3062,40 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F36">
-        <v>0.618172181637976</v>
+        <v>0.66388339120129</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.479768786127168</v>
+        <v>0.482758620689655</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.74</v>
+        <v>7.785</v>
       </c>
       <c r="K36">
-        <v>0.0015437447168216</v>
+        <v>0.0020913255081592</v>
       </c>
       <c r="L36">
-        <v>-0.0072059636643499</v>
+        <v>-0.0065415265735353</v>
       </c>
       <c r="M36">
-        <v>0.0104134615637496</v>
+        <v>0.0106980651176861</v>
       </c>
       <c r="N36">
-        <v>0.0199450221811582</v>
+        <v>0.0268635261163677</v>
       </c>
       <c r="O36" t="s">
         <v>45</v>
       </c>
       <c r="P36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="Q36">
         <v>1826486</v>
@@ -3098,16 +3104,16 @@
         <v>5549602</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3127,37 +3133,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.0477154578365076</v>
+        <v>0.09397531316458679</v>
       </c>
       <c r="G37">
-        <v>0.06741573033707859</v>
+        <v>0.0730337078651685</v>
       </c>
       <c r="H37">
-        <v>0.691011235955056</v>
+        <v>0.707865168539326</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>0.1245</v>
+        <v>0.123</v>
       </c>
       <c r="K37">
-        <v>0.001284837268615</v>
+        <v>0.0009467678465771</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.0035160242220101</v>
+        <v>0.0024630859364229</v>
       </c>
       <c r="N37">
-        <v>1.03199780611651</v>
+        <v>0.769729956566825</v>
       </c>
       <c r="O37" t="s">
         <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q37">
         <v>1826486</v>
@@ -3166,19 +3172,19 @@
         <v>5549602</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3195,40 +3201,40 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38">
-        <v>0.0501035824345717</v>
+        <v>0.290180441294693</v>
       </c>
       <c r="G38">
-        <v>0.0112359550561798</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H38">
-        <v>0.589887640449438</v>
+        <v>0.578651685393258</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38">
-        <v>0.2465</v>
+        <v>0.24</v>
       </c>
       <c r="K38">
-        <v>0.0024965823650034</v>
+        <v>0.000824405459999</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>-0.0020746465302005</v>
       </c>
       <c r="M38">
-        <v>0.0059181957883083</v>
+        <v>0.0033324429029774</v>
       </c>
       <c r="N38">
-        <v>1.0128123184598</v>
+        <v>0.343502274999595</v>
       </c>
       <c r="O38" t="s">
         <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q38">
         <v>1826486</v>
@@ -3237,19 +3243,19 @@
         <v>5549602</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3266,40 +3272,40 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39">
-        <v>0.237713674169983</v>
+        <v>0.265577748178818</v>
       </c>
       <c r="G39">
         <v>0.0168539325842697</v>
       </c>
       <c r="H39">
-        <v>0.421348314606742</v>
+        <v>0.410112359550562</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="K39">
-        <v>0.0001995363754872</v>
+        <v>0.0001338464357319</v>
       </c>
       <c r="L39">
-        <v>-0.0001600046761121</v>
+        <v>-0.0001599802231464</v>
       </c>
       <c r="M39">
-        <v>0.0006233415970834</v>
+        <v>0.0005017170329669999</v>
       </c>
       <c r="N39">
-        <v>0.950173216606113</v>
+        <v>0.669232178659882</v>
       </c>
       <c r="O39" t="s">
         <v>45</v>
       </c>
       <c r="P39" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q39">
         <v>1826486</v>
@@ -3308,19 +3314,19 @@
         <v>5549602</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3337,40 +3343,40 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40">
-        <v>0.363829667343861</v>
+        <v>0.41951261723245</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.910112359550562</v>
+        <v>0.898876404494382</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2.945</v>
+        <v>2.36</v>
       </c>
       <c r="K40">
-        <v>0.006793683661754</v>
+        <v>0.0023341952170219</v>
       </c>
       <c r="L40">
-        <v>-0.0232560956031781</v>
+        <v>-0.0228861721959173</v>
       </c>
       <c r="M40">
-        <v>0.0576876699252807</v>
+        <v>0.0324210768013547</v>
       </c>
       <c r="N40">
-        <v>0.230685353540035</v>
+        <v>0.0989065769924546</v>
       </c>
       <c r="O40" t="s">
         <v>45</v>
       </c>
       <c r="P40" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q40">
         <v>1826486</v>
@@ -3379,19 +3385,19 @@
         <v>5549602</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3408,40 +3414,40 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41">
-        <v>0.295026562674042</v>
+        <v>0.227779903055631</v>
       </c>
       <c r="G41">
-        <v>0.0473684210526316</v>
+        <v>0.0461538461538462</v>
       </c>
       <c r="H41">
-        <v>0.505263157894737</v>
+        <v>0.502564102564103</v>
       </c>
       <c r="I41">
         <v>6</v>
       </c>
       <c r="J41">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="K41">
-        <v>-0.0040620493579329</v>
+        <v>-0.0049907779399829</v>
       </c>
       <c r="L41">
-        <v>-0.0236112338991495</v>
+        <v>-0.0230498545979098</v>
       </c>
       <c r="M41">
-        <v>0.0149791691987461</v>
+        <v>0.0099960987036007</v>
       </c>
       <c r="N41">
-        <v>-0.219570235563943</v>
+        <v>-0.293575172940173</v>
       </c>
       <c r="O41" t="s">
         <v>45</v>
       </c>
       <c r="P41" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q41">
         <v>1826486</v>
@@ -3450,19 +3456,19 @@
         <v>5549602</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3470,49 +3476,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42">
-        <v>0.60904534997844</v>
+        <v>0.210703748515297</v>
       </c>
       <c r="G42">
-        <v>0.0619047619047619</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.123809523809524</v>
+        <v>0.83</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.01</v>
+        <v>10.745</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>-0.009329501915708799</v>
       </c>
       <c r="L42">
-        <v>-0.0001113392010075</v>
+        <v>-0.0299893200687914</v>
       </c>
       <c r="M42">
-        <v>3.55541228262419E-05</v>
+        <v>0.009962608203027801</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>-0.086826448726932</v>
       </c>
       <c r="O42" t="s">
         <v>45</v>
       </c>
       <c r="P42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q42">
         <v>1826486</v>
@@ -3521,19 +3527,19 @@
         <v>5549602</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3541,7 +3547,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3553,37 +3559,37 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.170412871595222</v>
+        <v>0.478920350519577</v>
       </c>
       <c r="G43">
-        <v>0.0047846889952153</v>
+        <v>0.0585585585585586</v>
       </c>
       <c r="H43">
-        <v>0.578947368421053</v>
+        <v>0.117117117117117</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
-        <v>129</v>
+        <v>0.01</v>
       </c>
       <c r="K43">
-        <v>1.40977806368607</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>-0.835240820843418</v>
+        <v>-9.99589490968802E-05</v>
       </c>
       <c r="M43">
-        <v>4.0171028459054</v>
+        <v>8.32194121667807E-05</v>
       </c>
       <c r="N43">
-        <v>1.09285121215975</v>
+        <v>0</v>
       </c>
       <c r="O43" t="s">
         <v>45</v>
       </c>
       <c r="P43" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q43">
         <v>1826486</v>
@@ -3592,19 +3598,19 @@
         <v>5549602</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3612,40 +3618,40 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44">
-        <v>0.9900016877957249</v>
+        <v>0.441152434984114</v>
       </c>
       <c r="G44">
-        <v>0.871287128712871</v>
+        <v>0.004524886877828</v>
       </c>
       <c r="H44">
-        <v>0.183168316831683</v>
+        <v>0.597285067873303</v>
       </c>
       <c r="I44">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>0.005</v>
+        <v>120</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>-2.08280682339017</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>2.3309375429818</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3654,7 +3660,7 @@
         <v>45</v>
       </c>
       <c r="P44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q44">
         <v>1826486</v>
@@ -3663,19 +3669,19 @@
         <v>5549602</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3683,49 +3689,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45">
-        <v>0.0115741790080345</v>
+        <v>0.995925613347413</v>
       </c>
       <c r="G45">
-        <v>0.229166666666667</v>
+        <v>0.878504672897196</v>
       </c>
       <c r="H45">
-        <v>0.677083333333333</v>
+        <v>0.172897196261682</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J45">
-        <v>0.1155</v>
+        <v>0.005</v>
       </c>
       <c r="K45">
-        <v>0.0006017298187808</v>
+        <v>0</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0.0026214114832535</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>0.5209781980786919</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
         <v>45</v>
       </c>
       <c r="P45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q45">
         <v>1826486</v>
@@ -3734,19 +3740,19 @@
         <v>5549602</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3754,7 +3760,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3763,40 +3769,40 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F46">
-        <v>0.11603688170543</v>
+        <v>0.0573202269473838</v>
       </c>
       <c r="G46">
-        <v>0.0904761904761905</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="H46">
-        <v>0.652380952380952</v>
+        <v>0.656862745098039</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>0.123</v>
+        <v>0.113</v>
       </c>
       <c r="K46">
-        <v>0.0004820591939859</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>-0.0002217412209655</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>0.001798994431013</v>
+        <v>0.0012767097264437</v>
       </c>
       <c r="N46">
-        <v>0.391918043891028</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
         <v>45</v>
       </c>
       <c r="P46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q46">
         <v>1826486</v>
@@ -3805,19 +3811,19 @@
         <v>5549602</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3825,49 +3831,49 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F47">
-        <v>0.545315697091779</v>
+        <v>0.979152298028332</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.90952380952381</v>
+        <v>0.456310679611651</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>2.945</v>
+        <v>7.74</v>
       </c>
       <c r="K47">
-        <v>-0.0025925769354512</v>
+        <v>0.0086706231454006</v>
       </c>
       <c r="L47">
-        <v>-0.0321369000211858</v>
+        <v>0.0015507681303133</v>
       </c>
       <c r="M47">
-        <v>0.0277303017174163</v>
+        <v>0.0156719649758997</v>
       </c>
       <c r="N47">
-        <v>-0.0880331726808587</v>
+        <v>0.112023554850137</v>
       </c>
       <c r="O47" t="s">
         <v>45</v>
       </c>
       <c r="P47" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q47">
         <v>1826486</v>
@@ -3876,19 +3882,16 @@
         <v>5549602</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V47" t="s">
-        <v>61</v>
-      </c>
-      <c r="W47" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3896,622 +3899,634 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>40</v>
       </c>
       <c r="F48">
+        <v>0.320723779335718</v>
+      </c>
+      <c r="G48">
+        <v>0.0900900900900901</v>
+      </c>
+      <c r="H48">
+        <v>0.653153153153153</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>0.121</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>-0.000547157162308</v>
+      </c>
+      <c r="M48">
+        <v>0.0009997249329127</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>45</v>
+      </c>
+      <c r="P48" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q48">
+        <v>1826486</v>
+      </c>
+      <c r="R48">
+        <v>5549602</v>
+      </c>
+      <c r="S48" t="s">
+        <v>60</v>
+      </c>
+      <c r="T48" t="s">
+        <v>61</v>
+      </c>
+      <c r="U48" t="s">
+        <v>62</v>
+      </c>
+      <c r="V48" t="s">
+        <v>63</v>
+      </c>
+      <c r="W48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49">
+        <v>0.202328380963643</v>
+      </c>
+      <c r="G49">
+        <v>0.0093457943925233</v>
+      </c>
+      <c r="H49">
+        <v>0.5</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0.2465</v>
+      </c>
+      <c r="K49">
+        <v>0.0008326686849214</v>
+      </c>
+      <c r="L49">
+        <v>-0.0009958556605970999</v>
+      </c>
+      <c r="M49">
+        <v>0.0024987598819346</v>
+      </c>
+      <c r="N49">
+        <v>0.337796626743</v>
+      </c>
+      <c r="O49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P49" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q49">
+        <v>1826486</v>
+      </c>
+      <c r="R49">
+        <v>5549602</v>
+      </c>
+      <c r="S49" t="s">
+        <v>60</v>
+      </c>
+      <c r="T49" t="s">
+        <v>61</v>
+      </c>
+      <c r="U49" t="s">
+        <v>62</v>
+      </c>
+      <c r="V49" t="s">
+        <v>63</v>
+      </c>
+      <c r="W49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50">
+        <v>0.587949134969959</v>
+      </c>
+      <c r="G50">
+        <v>0.014018691588785</v>
+      </c>
+      <c r="H50">
+        <v>0.38785046728972</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0.02</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>-0.0002502716790125</v>
+      </c>
+      <c r="M50">
+        <v>0.0002490623934538</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>45</v>
+      </c>
+      <c r="P50" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q50">
+        <v>1826486</v>
+      </c>
+      <c r="R50">
+        <v>5549602</v>
+      </c>
+      <c r="S50" t="s">
+        <v>60</v>
+      </c>
+      <c r="T50" t="s">
+        <v>61</v>
+      </c>
+      <c r="U50" t="s">
+        <v>62</v>
+      </c>
+      <c r="V50" t="s">
+        <v>63</v>
+      </c>
+      <c r="W50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51">
+        <v>0.735508496403526</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0.896396396396396</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>2.785</v>
+      </c>
+      <c r="K51">
+        <v>-0.009365213701729999</v>
+      </c>
+      <c r="L51">
+        <v>-0.0357552016906861</v>
+      </c>
+      <c r="M51">
+        <v>0.0135782746561625</v>
+      </c>
+      <c r="N51">
+        <v>-0.336273382467865</v>
+      </c>
+      <c r="O51" t="s">
+        <v>45</v>
+      </c>
+      <c r="P51" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q51">
+        <v>1826486</v>
+      </c>
+      <c r="R51">
+        <v>5549602</v>
+      </c>
+      <c r="S51" t="s">
+        <v>60</v>
+      </c>
+      <c r="T51" t="s">
+        <v>61</v>
+      </c>
+      <c r="U51" t="s">
+        <v>62</v>
+      </c>
+      <c r="V51" t="s">
+        <v>63</v>
+      </c>
+      <c r="W51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52">
         <v>0.110335680959923</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0.41</v>
-      </c>
-      <c r="K48">
-        <v>-0.0198604215300966</v>
-      </c>
-      <c r="L48">
-        <v>-0.0430041839738948</v>
-      </c>
-      <c r="M48">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.409</v>
+      </c>
+      <c r="K52">
+        <v>-0.0159249984326614</v>
+      </c>
+      <c r="L52">
+        <v>-0.0327911078514736</v>
+      </c>
+      <c r="M52">
         <v>-0.0052553393257858</v>
       </c>
-      <c r="N48">
-        <v>-4.84400525124308</v>
-      </c>
-      <c r="O48" t="s">
-        <v>45</v>
-      </c>
-      <c r="P48" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q48">
-        <v>1826486</v>
-      </c>
-      <c r="R48">
-        <v>5549602</v>
-      </c>
-      <c r="S48" t="s">
-        <v>58</v>
-      </c>
-      <c r="T48" t="s">
-        <v>59</v>
-      </c>
-      <c r="U48" t="s">
-        <v>60</v>
-      </c>
-      <c r="V48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="N52">
+        <v>-3.89364264857247</v>
+      </c>
+      <c r="O52" t="s">
+        <v>45</v>
+      </c>
+      <c r="P52" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q52">
+        <v>1826486</v>
+      </c>
+      <c r="R52">
+        <v>5549602</v>
+      </c>
+      <c r="S52" t="s">
+        <v>60</v>
+      </c>
+      <c r="T52" t="s">
+        <v>61</v>
+      </c>
+      <c r="U52" t="s">
+        <v>62</v>
+      </c>
+      <c r="V52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
         <v>38</v>
       </c>
-      <c r="C49">
+      <c r="C53">
         <v>5</v>
       </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49">
-        <v>0.768783636774762</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>110</v>
       </c>
-      <c r="K49">
-        <v>3.20055203512263</v>
-      </c>
-      <c r="L49">
-        <v>-5.95032110686047</v>
-      </c>
-      <c r="M49">
-        <v>5.30901840768906</v>
-      </c>
-      <c r="N49">
-        <v>2.90959275920239</v>
-      </c>
-      <c r="O49" t="s">
-        <v>45</v>
-      </c>
-      <c r="P49" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q49">
-        <v>1826486</v>
-      </c>
-      <c r="R49">
-        <v>5549602</v>
-      </c>
-      <c r="S49" t="s">
-        <v>58</v>
-      </c>
-      <c r="T49" t="s">
-        <v>59</v>
-      </c>
-      <c r="U49" t="s">
-        <v>60</v>
-      </c>
-      <c r="V49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="K53">
+        <v>-3.94821242051827</v>
+      </c>
+      <c r="L53">
+        <v>-15.0061067596037</v>
+      </c>
+      <c r="M53">
+        <v>2.97511412133329</v>
+      </c>
+      <c r="N53">
+        <v>-3.58928401865298</v>
+      </c>
+      <c r="O53" t="s">
+        <v>45</v>
+      </c>
+      <c r="P53" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q53">
+        <v>1826486</v>
+      </c>
+      <c r="R53">
+        <v>5549602</v>
+      </c>
+      <c r="S53" t="s">
+        <v>60</v>
+      </c>
+      <c r="T53" t="s">
+        <v>61</v>
+      </c>
+      <c r="U53" t="s">
+        <v>62</v>
+      </c>
+      <c r="V53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
         <v>39</v>
       </c>
-      <c r="C50">
+      <c r="C54">
         <v>5</v>
       </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>40</v>
-      </c>
-      <c r="F50">
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54">
         <v>0.110335680959923</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>5.94</v>
-      </c>
-      <c r="K50">
-        <v>-0.367170620463267</v>
-      </c>
-      <c r="L50">
-        <v>-0.848799094903171</v>
-      </c>
-      <c r="M50">
-        <v>-0.0072384298599629</v>
-      </c>
-      <c r="N50">
-        <v>-6.18132357682268</v>
-      </c>
-      <c r="O50" t="s">
-        <v>45</v>
-      </c>
-      <c r="P50" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q50">
-        <v>1826486</v>
-      </c>
-      <c r="R50">
-        <v>5549602</v>
-      </c>
-      <c r="S50" t="s">
-        <v>58</v>
-      </c>
-      <c r="T50" t="s">
-        <v>59</v>
-      </c>
-      <c r="U50" t="s">
-        <v>60</v>
-      </c>
-      <c r="V50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>5.676</v>
+      </c>
+      <c r="K54">
+        <v>-0.183067626843547</v>
+      </c>
+      <c r="L54">
+        <v>-0.513323543449921</v>
+      </c>
+      <c r="M54">
+        <v>0.0376439622060654</v>
+      </c>
+      <c r="N54">
+        <v>-3.22529293240922</v>
+      </c>
+      <c r="O54" t="s">
+        <v>45</v>
+      </c>
+      <c r="P54" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q54">
+        <v>1826486</v>
+      </c>
+      <c r="R54">
+        <v>5549602</v>
+      </c>
+      <c r="S54" t="s">
+        <v>60</v>
+      </c>
+      <c r="T54" t="s">
+        <v>61</v>
+      </c>
+      <c r="U54" t="s">
+        <v>62</v>
+      </c>
+      <c r="V54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
         <v>37</v>
       </c>
-      <c r="C51">
+      <c r="C55">
         <v>10</v>
       </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51">
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55">
         <v>0.006133030693106</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0.4455</v>
-      </c>
-      <c r="K51">
-        <v>-0.0195767841011744</v>
-      </c>
-      <c r="L51">
-        <v>-0.0249742821416092</v>
-      </c>
-      <c r="M51">
-        <v>-0.0132396609052462</v>
-      </c>
-      <c r="N51">
-        <v>-4.39433986558347</v>
-      </c>
-      <c r="O51" t="s">
-        <v>45</v>
-      </c>
-      <c r="P51" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q51">
-        <v>1826486</v>
-      </c>
-      <c r="R51">
-        <v>5549602</v>
-      </c>
-      <c r="S51" t="s">
-        <v>58</v>
-      </c>
-      <c r="T51" t="s">
-        <v>59</v>
-      </c>
-      <c r="U51" t="s">
-        <v>60</v>
-      </c>
-      <c r="V51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
-      <c r="A52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.415</v>
+      </c>
+      <c r="K55">
+        <v>-0.0191977762803235</v>
+      </c>
+      <c r="L55">
+        <v>-0.0234187438782369</v>
+      </c>
+      <c r="M55">
+        <v>-0.0131723199583274</v>
+      </c>
+      <c r="N55">
+        <v>-4.62597018802975</v>
+      </c>
+      <c r="O55" t="s">
+        <v>45</v>
+      </c>
+      <c r="P55" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q55">
+        <v>1826486</v>
+      </c>
+      <c r="R55">
+        <v>5549602</v>
+      </c>
+      <c r="S55" t="s">
+        <v>60</v>
+      </c>
+      <c r="T55" t="s">
+        <v>61</v>
+      </c>
+      <c r="U55" t="s">
+        <v>62</v>
+      </c>
+      <c r="V55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
         <v>38</v>
       </c>
-      <c r="C52">
+      <c r="C56">
         <v>10</v>
       </c>
-      <c r="D52" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52">
-        <v>0.5</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>110.24</v>
-      </c>
-      <c r="K52">
-        <v>-0.0720698500394633</v>
-      </c>
-      <c r="L52">
-        <v>-1.04115830020779</v>
-      </c>
-      <c r="M52">
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56">
+        <v>0.360257393568128</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>108</v>
+      </c>
+      <c r="K56">
+        <v>-0.248356754306437</v>
+      </c>
+      <c r="L56">
+        <v>-2.39760695348281</v>
+      </c>
+      <c r="M56">
         <v>1.72016002757219</v>
       </c>
-      <c r="N52">
-        <v>-0.0653754082360879</v>
-      </c>
-      <c r="O52" t="s">
-        <v>45</v>
-      </c>
-      <c r="P52" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q52">
-        <v>1826486</v>
-      </c>
-      <c r="R52">
-        <v>5549602</v>
-      </c>
-      <c r="S52" t="s">
-        <v>58</v>
-      </c>
-      <c r="T52" t="s">
-        <v>59</v>
-      </c>
-      <c r="U52" t="s">
-        <v>60</v>
-      </c>
-      <c r="V52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
-      <c r="A53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="N56">
+        <v>-0.229959957691145</v>
+      </c>
+      <c r="O56" t="s">
+        <v>45</v>
+      </c>
+      <c r="P56" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q56">
+        <v>1826486</v>
+      </c>
+      <c r="R56">
+        <v>5549602</v>
+      </c>
+      <c r="S56" t="s">
+        <v>60</v>
+      </c>
+      <c r="T56" t="s">
+        <v>61</v>
+      </c>
+      <c r="U56" t="s">
+        <v>62</v>
+      </c>
+      <c r="V56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="C53">
+      <c r="C57">
         <v>10</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F53">
-        <v>0.088983712984032</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0.9</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>6.06</v>
-      </c>
-      <c r="K53">
-        <v>-0.09686187845303849</v>
-      </c>
-      <c r="L53">
-        <v>-0.31678050971774</v>
-      </c>
-      <c r="M53">
-        <v>0.0446784755094195</v>
-      </c>
-      <c r="N53">
-        <v>-1.59838083255839</v>
-      </c>
-      <c r="O53" t="s">
-        <v>45</v>
-      </c>
-      <c r="P53" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q53">
-        <v>1826486</v>
-      </c>
-      <c r="R53">
-        <v>5549602</v>
-      </c>
-      <c r="S53" t="s">
-        <v>58</v>
-      </c>
-      <c r="T53" t="s">
-        <v>59</v>
-      </c>
-      <c r="U53" t="s">
-        <v>60</v>
-      </c>
-      <c r="V53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
-      <c r="A54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54">
-        <v>15</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54">
-        <v>0.077314875982908</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0.46</v>
-      </c>
-      <c r="K54">
-        <v>-0.008466059602649</v>
-      </c>
-      <c r="L54">
-        <v>-0.0180621295273442</v>
-      </c>
-      <c r="M54">
-        <v>0.0009666272055271</v>
-      </c>
-      <c r="N54">
-        <v>-1.84044773970631</v>
-      </c>
-      <c r="O54" t="s">
-        <v>45</v>
-      </c>
-      <c r="P54" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q54">
-        <v>1826486</v>
-      </c>
-      <c r="R54">
-        <v>5549602</v>
-      </c>
-      <c r="S54" t="s">
-        <v>58</v>
-      </c>
-      <c r="T54" t="s">
-        <v>59</v>
-      </c>
-      <c r="U54" t="s">
-        <v>60</v>
-      </c>
-      <c r="V54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
-      <c r="A55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55">
-        <v>15</v>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55">
-        <v>0.346090386360938</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>110.48</v>
-      </c>
-      <c r="K55">
-        <v>-0.246929577464791</v>
-      </c>
-      <c r="L55">
-        <v>-0.815495700645268</v>
-      </c>
-      <c r="M55">
-        <v>0.651164303018349</v>
-      </c>
-      <c r="N55">
-        <v>-0.223506134562627</v>
-      </c>
-      <c r="O55" t="s">
-        <v>45</v>
-      </c>
-      <c r="P55" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q55">
-        <v>1826486</v>
-      </c>
-      <c r="R55">
-        <v>5549602</v>
-      </c>
-      <c r="S55" t="s">
-        <v>58</v>
-      </c>
-      <c r="T55" t="s">
-        <v>59</v>
-      </c>
-      <c r="U55" t="s">
-        <v>60</v>
-      </c>
-      <c r="V55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
-      <c r="A56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56">
-        <v>15</v>
-      </c>
-      <c r="D56" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56">
-        <v>0.434676121183963</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0.928571428571429</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>6.06</v>
-      </c>
-      <c r="K56">
-        <v>-0.0201055045871558</v>
-      </c>
-      <c r="L56">
-        <v>-0.100741944365142</v>
-      </c>
-      <c r="M56">
-        <v>0.0969725328705003</v>
-      </c>
-      <c r="N56">
-        <v>-0.33177400308838</v>
-      </c>
-      <c r="O56" t="s">
-        <v>45</v>
-      </c>
-      <c r="P56" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q56">
-        <v>1826486</v>
-      </c>
-      <c r="R56">
-        <v>5549602</v>
-      </c>
-      <c r="S56" t="s">
-        <v>58</v>
-      </c>
-      <c r="T56" t="s">
-        <v>59</v>
-      </c>
-      <c r="U56" t="s">
-        <v>60</v>
-      </c>
-      <c r="V56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
-      <c r="A57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57">
-        <v>20</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -4520,37 +4535,37 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>0.5</v>
+        <v>0.121517480147261</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0.944444444444444</v>
+        <v>0.9</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>109.5</v>
+        <v>6</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>-0.0767684729064038</v>
       </c>
       <c r="L57">
-        <v>-0.509979355003035</v>
+        <v>-0.273505344060418</v>
       </c>
       <c r="M57">
-        <v>0.568136864791662</v>
+        <v>0.0653041584411385</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>-1.27947454844006</v>
       </c>
       <c r="O57" t="s">
         <v>45</v>
       </c>
       <c r="P57" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q57">
         <v>1826486</v>
@@ -4559,16 +4574,288 @@
         <v>5549602</v>
       </c>
       <c r="S57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V57" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58">
+        <v>0.03001914545479</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.449</v>
+      </c>
+      <c r="K58">
+        <v>-0.0103638429752066</v>
+      </c>
+      <c r="L58">
+        <v>-0.0185136072945167</v>
+      </c>
+      <c r="M58">
+        <v>-0.0035805811787597</v>
+      </c>
+      <c r="N58">
+        <v>-2.30820556240682</v>
+      </c>
+      <c r="O58" t="s">
+        <v>45</v>
+      </c>
+      <c r="P58" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q58">
+        <v>1826486</v>
+      </c>
+      <c r="R58">
+        <v>5549602</v>
+      </c>
+      <c r="S58" t="s">
+        <v>60</v>
+      </c>
+      <c r="T58" t="s">
+        <v>61</v>
+      </c>
+      <c r="U58" t="s">
+        <v>62</v>
+      </c>
+      <c r="V58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59">
+        <v>0.310345358537677</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>110</v>
+      </c>
+      <c r="K59">
+        <v>-0.246929577464791</v>
+      </c>
+      <c r="L59">
+        <v>-0.9918965236491341</v>
+      </c>
+      <c r="M59">
+        <v>0.651164303018349</v>
+      </c>
+      <c r="N59">
+        <v>-0.224481434058901</v>
+      </c>
+      <c r="O59" t="s">
+        <v>45</v>
+      </c>
+      <c r="P59" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q59">
+        <v>1826486</v>
+      </c>
+      <c r="R59">
+        <v>5549602</v>
+      </c>
+      <c r="S59" t="s">
+        <v>60</v>
+      </c>
+      <c r="T59" t="s">
+        <v>61</v>
+      </c>
+      <c r="U59" t="s">
+        <v>62</v>
+      </c>
+      <c r="V59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60">
+        <v>0.292867606791531</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>6.06</v>
+      </c>
+      <c r="K60">
+        <v>-0.0437901907356949</v>
+      </c>
+      <c r="L60">
+        <v>-0.106583615524769</v>
+      </c>
+      <c r="M60">
+        <v>0.0606733056489965</v>
+      </c>
+      <c r="N60">
+        <v>-0.7226104081797849</v>
+      </c>
+      <c r="O60" t="s">
+        <v>45</v>
+      </c>
+      <c r="P60" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q60">
+        <v>1826486</v>
+      </c>
+      <c r="R60">
+        <v>5549602</v>
+      </c>
+      <c r="S60" t="s">
+        <v>60</v>
+      </c>
+      <c r="T60" t="s">
+        <v>61</v>
+      </c>
+      <c r="U60" t="s">
+        <v>62</v>
+      </c>
+      <c r="V60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61">
+        <v>0.27588195259519</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0.947368421052632</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>109</v>
+      </c>
+      <c r="K61">
+        <v>-0.165656106675726</v>
+      </c>
+      <c r="L61">
+        <v>-0.813830762855571</v>
+      </c>
+      <c r="M61">
+        <v>0.410432252798897</v>
+      </c>
+      <c r="N61">
+        <v>-0.151978079519015</v>
+      </c>
+      <c r="O61" t="s">
+        <v>45</v>
+      </c>
+      <c r="P61" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61">
+        <v>1826486</v>
+      </c>
+      <c r="R61">
+        <v>5549602</v>
+      </c>
+      <c r="S61" t="s">
+        <v>60</v>
+      </c>
+      <c r="T61" t="s">
+        <v>61</v>
+      </c>
+      <c r="U61" t="s">
+        <v>62</v>
+      </c>
+      <c r="V61" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
